--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjt/Desktop/LETGO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjt/GitHub/LetCome/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,11 @@
     <sheet name="登录" sheetId="3" r:id="rId3"/>
     <sheet name="上传图片" sheetId="4" r:id="rId4"/>
     <sheet name="获取图片" sheetId="5" r:id="rId5"/>
-    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId6"/>
+    <sheet name="获取单个产品详情" sheetId="9" r:id="rId6"/>
+    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId7"/>
+    <sheet name="更新产品" sheetId="7" r:id="rId8"/>
+    <sheet name="获取产品目录" sheetId="8" r:id="rId9"/>
+    <sheet name="收藏" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="119">
   <si>
     <t>注册</t>
   </si>
@@ -93,39 +97,287 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>提交方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>let_come_did</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>device_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录后需要在头部存放信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y/N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>let_come_sessionid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>myfiles</t>
+  </si>
+  <si>
+    <t>retVal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取图片上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/image/getimg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几页，默认为1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认20条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取图片瀑布流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image/png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回新上传图片对应的产品id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新产品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/categories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>records</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取产品目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀑布流数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>imagename</t>
+  </si>
+  <si>
+    <t>imagepath</t>
+  </si>
+  <si>
+    <t>thumbpath</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩略图链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/user/register</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提交方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>let_come_did</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
+    <t>email</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -133,146 +385,112 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>登录后需要在头部存放信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y/N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>let_come_sessionid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片上传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>myfiles</t>
+    <t xml:space="preserve">multipart/form-data; </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/image/upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">multipart/form-data; </t>
+    <t>/product/update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1970.7.1以来的毫秒数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态:0(发布)，1（正在售出），2（已售）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/waterfalls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_info</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>retVal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回新上传图片的id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取图片上传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/image/getimg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第几页，默认为1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认20条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取图片瀑布流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回数据元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>thumbpath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩略图地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/waterfalls</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pno</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>imagepath</t>
+  </si>
+  <si>
+    <t>关联关系ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/favorite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否收藏(Y/N)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_favorite</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +540,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -380,8 +603,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -397,10 +626,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="45">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -421,6 +664,9 @@
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -440,6 +686,9 @@
     <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -773,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -785,7 +1034,7 @@
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -793,33 +1042,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -829,12 +1087,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -846,7 +1210,7 @@
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -854,90 +1218,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -955,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -966,92 +1339,98 @@
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1451,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1466,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -1095,15 +1474,15 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1111,44 +1490,47 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1162,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1174,55 +1556,58 @@
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1233,10 +1618,269 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1244,99 +1888,551 @@
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C11:C27"/>
+    <mergeCell ref="B11:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A4:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -17,11 +17,17 @@
     <sheet name="登录" sheetId="3" r:id="rId3"/>
     <sheet name="上传图片" sheetId="4" r:id="rId4"/>
     <sheet name="获取图片" sheetId="5" r:id="rId5"/>
-    <sheet name="获取单个产品详情" sheetId="9" r:id="rId6"/>
-    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId7"/>
-    <sheet name="更新产品" sheetId="7" r:id="rId8"/>
-    <sheet name="获取产品目录" sheetId="8" r:id="rId9"/>
-    <sheet name="收藏" sheetId="10" r:id="rId10"/>
+    <sheet name="更新产品" sheetId="7" r:id="rId6"/>
+    <sheet name="获取单个产品详情" sheetId="9" r:id="rId7"/>
+    <sheet name="查询我的产品" sheetId="11" r:id="rId8"/>
+    <sheet name="查询用户产品列表" sheetId="12" r:id="rId9"/>
+    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId10"/>
+    <sheet name="获取产品目录" sheetId="8" r:id="rId11"/>
+    <sheet name="收藏" sheetId="10" r:id="rId12"/>
+    <sheet name="我的收藏" sheetId="13" r:id="rId13"/>
+    <sheet name="查询消息" sheetId="14" r:id="rId14"/>
+    <sheet name="查询联系人" sheetId="16" r:id="rId15"/>
+    <sheet name="发送消息" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="162">
   <si>
     <t>注册</t>
   </si>
@@ -491,6 +497,175 @@
   </si>
   <si>
     <t>is_favorite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询我的产品</t>
+  </si>
+  <si>
+    <t>fullname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布用户全名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态:0(发布)，1（正在售出），2（已售）,默认为全部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询我的收藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取单个产品详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/myproducts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/products</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询用户产品列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/myfavorites</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/get</t>
+  </si>
+  <si>
+    <t>toid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/add</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/message/user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,6 +718,12 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF008000"/>
       <name val="Menlo"/>
     </font>
   </fonts>
@@ -610,7 +791,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -637,10 +818,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1089,15 +1283,399 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C11:C27"/>
+    <mergeCell ref="B11:B27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1175,21 +1753,769 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="A1:E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B12:B29"/>
+    <mergeCell ref="C12:C29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="B9:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A6:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1235,7 +2561,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -1246,7 +2572,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -1258,7 +2584,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1275,7 +2601,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -1286,31 +2612,31 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="17"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1331,7 +2657,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1364,7 +2690,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -1375,7 +2701,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -1395,7 +2721,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -1406,31 +2732,31 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="17"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +2831,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -1513,19 +2839,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1618,10 +2944,192 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A4:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1637,7 +3145,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1653,7 +3161,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1679,7 +3187,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -1687,13 +3195,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +3280,9 @@
       <c r="B16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
@@ -1875,21 +3385,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E27"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1897,7 +3406,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1905,7 +3414,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1913,427 +3422,272 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
+      <c r="A4" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9" t="s">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9" t="s">
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9" t="s">
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="9" t="s">
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9" t="s">
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9" t="s">
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="9" t="s">
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9" t="s">
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="9" t="s">
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" t="s">
         <v>118</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="B11:B27"/>
+  <mergeCells count="3">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C12:C29"/>
+    <mergeCell ref="B12:B29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A4:A12"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -2341,7 +3695,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2349,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2357,81 +3711,261 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>39</v>
+      <c r="A4" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>119</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
+      <c r="C12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+  <mergeCells count="3">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B12:B29"/>
+    <mergeCell ref="C12:C29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="178">
   <si>
     <t>注册</t>
   </si>
@@ -666,6 +666,61 @@
   </si>
   <si>
     <t>全名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>pricerank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>productname</t>
+  </si>
+  <si>
+    <t>starttime</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离,单位米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录id</t>
+  </si>
+  <si>
+    <t>产品名称，模糊查询</t>
+  </si>
+  <si>
+    <t>价格排序，asc/desc</t>
+  </si>
+  <si>
+    <t>开始时间，1970年1月1日的秒数</t>
+  </si>
+  <si>
+    <t>结束时间，1970年1月1日的秒数</t>
+  </si>
+  <si>
+    <t>第几页，默认为1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +728,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -725,6 +780,22 @@
       <sz val="14"/>
       <color rgb="FF008000"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -791,7 +862,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -830,6 +901,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1283,22 +1356,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1387,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1322,224 +1395,312 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B11" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C12" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C13" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C19" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="9" t="s">
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="9" t="s">
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="9" t="s">
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="9" t="s">
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="9" t="s">
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="9" t="s">
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="9" t="s">
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9" t="s">
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="9" t="s">
+    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="9" t="s">
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="9" t="s">
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="9" t="s">
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="9" t="s">
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="9" t="s">
+    <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="9" t="s">
+    <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E34" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" t="s">
         <v>118</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E35" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="B11:B27"/>
+    <mergeCell ref="C19:C35"/>
+    <mergeCell ref="B19:B35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,10 +1790,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D10" t="s">
@@ -1643,8 +1804,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" t="s">
         <v>68</v>
       </c>
@@ -1862,7 +2023,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -1870,22 +2031,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1896,8 +2057,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -1906,22 +2067,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -1930,8 +2091,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -1940,8 +2101,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -1950,22 +2111,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -1974,8 +2135,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
@@ -1984,15 +2145,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="9" t="s">
         <v>78</v>
       </c>
@@ -2001,8 +2162,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="9" t="s">
         <v>79</v>
       </c>
@@ -2011,8 +2172,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
@@ -2021,8 +2182,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
         <v>108</v>
       </c>
@@ -2031,8 +2192,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" t="s">
         <v>118</v>
       </c>
@@ -2041,8 +2202,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="9" t="s">
         <v>121</v>
       </c>
@@ -2125,7 +2286,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -2133,22 +2294,22 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -2159,15 +2320,15 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="9" t="s">
         <v>138</v>
       </c>
@@ -2176,8 +2337,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="9" t="s">
         <v>139</v>
       </c>
@@ -2186,8 +2347,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
         <v>140</v>
       </c>
@@ -2196,8 +2357,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
         <v>141</v>
       </c>
@@ -2206,8 +2367,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="9" t="s">
         <v>142</v>
       </c>
@@ -2274,7 +2435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2322,7 +2483,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -2330,23 +2491,23 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D9" t="s">
@@ -2357,17 +2518,17 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" t="s">
         <v>2</v>
       </c>
@@ -2441,7 +2602,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
@@ -2455,7 +2616,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>153</v>
       </c>
@@ -2561,7 +2722,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -2572,7 +2733,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -2584,7 +2745,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -2601,7 +2762,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -2612,31 +2773,31 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -2690,7 +2851,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -2701,7 +2862,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -2721,7 +2882,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -2732,31 +2893,31 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -2831,7 +2992,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -2839,19 +3000,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -2982,7 +3143,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2996,7 +3157,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
@@ -3006,7 +3167,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
@@ -3018,7 +3179,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
@@ -3030,7 +3191,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
@@ -3040,7 +3201,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
@@ -3052,7 +3213,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
@@ -3062,7 +3223,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
@@ -3074,7 +3235,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="9" t="s">
         <v>59</v>
       </c>
@@ -3094,7 +3255,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -3102,13 +3263,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -3187,7 +3348,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -3195,13 +3356,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -3475,7 +3636,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -3483,22 +3644,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3509,8 +3670,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -3519,22 +3680,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -3543,8 +3704,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -3553,8 +3714,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -3563,22 +3724,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -3587,8 +3748,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
@@ -3597,15 +3758,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="9" t="s">
         <v>78</v>
       </c>
@@ -3614,8 +3775,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="9" t="s">
         <v>79</v>
       </c>
@@ -3624,8 +3785,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
@@ -3634,8 +3795,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
         <v>108</v>
       </c>
@@ -3644,8 +3805,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" t="s">
         <v>118</v>
       </c>
@@ -3654,8 +3815,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="9" t="s">
         <v>121</v>
       </c>
@@ -3773,7 +3934,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -3781,22 +3942,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3807,8 +3968,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -3817,22 +3978,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -3841,8 +4002,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -3851,8 +4012,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -3861,22 +4022,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
@@ -3895,15 +4056,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="9" t="s">
         <v>78</v>
       </c>
@@ -3912,8 +4073,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="9" t="s">
         <v>79</v>
       </c>
@@ -3922,8 +4083,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
@@ -3932,8 +4093,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
         <v>108</v>
       </c>
@@ -3942,8 +4103,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" t="s">
         <v>118</v>
       </c>
@@ -3952,8 +4113,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="9" t="s">
         <v>121</v>
       </c>

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjt/GitHub/LetCome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHome\LetCome\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="9"/>
+    <workbookView minimized="1" xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="500" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -31,9 +31,6 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="180">
   <si>
     <t>注册</t>
   </si>
@@ -705,9 +702,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目录id</t>
-  </si>
-  <si>
     <t>产品名称，模糊查询</t>
   </si>
   <si>
@@ -721,6 +715,38 @@
   </si>
   <si>
     <t>第几页，默认为1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目录id,多id用逗号分隔,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后一个数字之后不能有逗号</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -792,6 +818,21 @@
     <font>
       <sz val="14"/>
       <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -862,7 +903,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -908,6 +949,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -962,6 +1006,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1295,13 +1342,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1309,7 +1356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1367,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1378,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1342,7 +1389,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1359,19 +1406,19 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1387,7 +1434,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1395,7 +1442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1409,7 +1456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="B5" s="8" t="s">
         <v>163</v>
       </c>
@@ -1420,7 +1467,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="B6" s="8" t="s">
         <v>164</v>
       </c>
@@ -1431,62 +1478,62 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="37.5">
       <c r="B7" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>172</v>
+      <c r="C7" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="D7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="18.75">
       <c r="B11" s="16" t="s">
         <v>168</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
@@ -1497,22 +1544,22 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1520,7 +1567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" s="4" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1528,17 +1575,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="18">
       <c r="B19" s="18" t="s">
         <v>65</v>
       </c>
@@ -1552,7 +1599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="18">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="9" t="s">
@@ -1562,21 +1609,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="18">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="18">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="18">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="9" t="s">
@@ -1586,7 +1633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="18">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="9" t="s">
@@ -1596,7 +1643,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="18">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="9" t="s">
@@ -1606,21 +1653,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="18">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="18">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="18">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="9" t="s">
@@ -1630,7 +1677,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="18">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="9" t="s">
@@ -1640,14 +1687,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="18">
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" ht="18">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="9" t="s">
@@ -1657,7 +1704,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" ht="18">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="9" t="s">
@@ -1667,7 +1714,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" ht="18">
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="9" t="s">
@@ -1677,7 +1724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" ht="18">
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="9" t="s">
@@ -1687,7 +1734,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" t="s">
@@ -1715,13 +1762,13 @@
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +1776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1737,7 +1784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +1792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1753,7 +1800,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1761,7 +1808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1770,7 +1817,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1779,17 +1826,17 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" s="18" t="s">
         <v>65</v>
       </c>
@@ -1803,7 +1850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" t="s">
@@ -1831,15 +1878,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1847,7 +1894,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1855,7 +1902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1863,7 +1910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1877,7 +1924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1885,7 +1932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -1894,7 +1941,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1903,17 +1950,17 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" s="11" t="s">
         <v>114</v>
       </c>
@@ -1921,7 +1968,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
@@ -1940,16 +1987,16 @@
       <selection activeCell="E29" sqref="A1:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="51.625" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="5" max="5" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1957,7 +2004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1965,7 +2012,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1973,7 +2020,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1987,7 +2034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>47</v>
@@ -1999,7 +2046,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>48</v>
@@ -2011,10 +2058,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="12"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2022,7 +2069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
@@ -2030,19 +2077,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18">
       <c r="B12" s="18" t="s">
         <v>65</v>
       </c>
@@ -2056,7 +2103,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
@@ -2066,21 +2113,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="9" t="s">
@@ -2090,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="18">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="9" t="s">
@@ -2100,7 +2147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="18">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="9" t="s">
@@ -2110,21 +2157,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="18">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="18">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="18">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="9" t="s">
@@ -2134,7 +2181,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="18">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="9" t="s">
@@ -2144,14 +2191,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="18">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="18">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="9" t="s">
@@ -2161,7 +2208,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="18">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="9" t="s">
@@ -2171,7 +2218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="18">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
@@ -2181,7 +2228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="18">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
@@ -2191,7 +2238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" t="s">
@@ -2201,7 +2248,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="18">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="9" t="s">
@@ -2227,19 +2274,19 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="51.625" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="5" max="5" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2294,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2302,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2310,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -2277,7 +2324,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2285,7 +2332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
@@ -2293,19 +2340,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18">
       <c r="B9" s="18" t="s">
         <v>65</v>
       </c>
@@ -2316,17 +2363,17 @@
         <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18">
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="9" t="s">
@@ -2336,7 +2383,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="9" t="s">
@@ -2346,7 +2393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
@@ -2356,7 +2403,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
@@ -2366,7 +2413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="9" t="s">
@@ -2376,47 +2423,47 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
     </row>
@@ -2433,19 +2480,19 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2453,7 +2500,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2461,7 +2508,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2469,12 +2516,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2482,7 +2529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2490,19 +2537,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>65</v>
@@ -2517,7 +2564,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -2525,7 +2572,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -2536,27 +2583,66 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+    <row r="12" spans="1:5" ht="18">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="C9:C18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2571,13 +2657,13 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2585,7 +2671,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2593,7 +2679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2601,7 +2687,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>39</v>
       </c>
@@ -2615,7 +2701,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>153</v>
@@ -2627,7 +2713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2635,7 +2721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="13" t="s">
         <v>43</v>
       </c>
@@ -2644,7 +2730,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
@@ -2653,17 +2739,17 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -2677,6 +2763,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2688,16 +2775,16 @@
       <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="2" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2705,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2713,7 +2800,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2721,7 +2808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
@@ -2732,7 +2819,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>26</v>
@@ -2744,7 +2831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>2</v>
@@ -2753,7 +2840,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2761,7 +2848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
@@ -2772,31 +2859,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>2</v>
@@ -2821,12 +2908,12 @@
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +2921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2842,7 +2929,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2850,7 +2937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
@@ -2861,7 +2948,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>27</v>
@@ -2873,7 +2960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2881,7 +2968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
@@ -2892,31 +2979,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>2</v>
@@ -2941,14 +3028,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2956,7 +3043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2964,7 +3051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2972,7 +3059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +3070,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2991,7 +3078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
@@ -2999,19 +3086,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>32</v>
@@ -3037,13 +3124,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3051,7 +3138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3059,7 +3146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3067,7 +3154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3081,7 +3168,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3089,7 +3176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -3111,14 +3198,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3126,7 +3213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3134,7 +3221,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3142,7 +3229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
@@ -3156,7 +3243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="18"/>
       <c r="B5" s="8" t="s">
         <v>53</v>
@@ -3166,7 +3253,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="18"/>
       <c r="B6" s="9" t="s">
         <v>54</v>
@@ -3178,7 +3265,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="18"/>
       <c r="B7" s="9" t="s">
         <v>55</v>
@@ -3190,7 +3277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" s="18"/>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3200,7 +3287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="18">
       <c r="A9" s="18"/>
       <c r="B9" s="9" t="s">
         <v>57</v>
@@ -3212,7 +3299,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="18">
       <c r="A10" s="18"/>
       <c r="B10" s="9" t="s">
         <v>58</v>
@@ -3222,7 +3309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="18">
       <c r="A11" s="18"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
@@ -3234,7 +3321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="18">
       <c r="A12" s="18"/>
       <c r="B12" s="9" t="s">
         <v>59</v>
@@ -3246,7 +3333,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3254,7 +3341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
@@ -3262,13 +3349,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>6</v>
@@ -3293,15 +3380,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3309,7 +3396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3317,7 +3404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3325,7 +3412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -3339,7 +3426,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3347,7 +3434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
@@ -3355,19 +3442,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18">
       <c r="B9" s="9" t="s">
         <v>73</v>
       </c>
@@ -3377,7 +3464,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18">
       <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
@@ -3387,7 +3474,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18">
       <c r="B11" s="9" t="s">
         <v>74</v>
       </c>
@@ -3397,7 +3484,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18">
       <c r="B12" s="9" t="s">
         <v>75</v>
       </c>
@@ -3407,7 +3494,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18">
       <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
@@ -3417,7 +3504,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18">
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
@@ -3427,7 +3514,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18">
       <c r="B15" s="9" t="s">
         <v>56</v>
       </c>
@@ -3437,7 +3524,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18">
       <c r="B16" s="9" t="s">
         <v>57</v>
       </c>
@@ -3447,7 +3534,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="18">
       <c r="B17" s="9" t="s">
         <v>112</v>
       </c>
@@ -3457,7 +3544,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="18">
       <c r="B18" s="9" t="s">
         <v>58</v>
       </c>
@@ -3465,7 +3552,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="18">
       <c r="B19" s="9" t="s">
         <v>59</v>
       </c>
@@ -3475,7 +3562,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -3485,7 +3572,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="18">
       <c r="B21" s="9" t="s">
         <v>94</v>
       </c>
@@ -3497,7 +3584,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="18">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
@@ -3507,7 +3594,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="18">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
@@ -3517,7 +3604,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="18">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
@@ -3527,7 +3614,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="18">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
@@ -3554,15 +3641,15 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="43.875" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3570,7 +3657,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3578,7 +3665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3586,7 +3673,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +3687,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>47</v>
@@ -3612,7 +3699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>48</v>
@@ -3624,10 +3711,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3635,7 +3722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
@@ -3643,19 +3730,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18">
       <c r="B12" s="18" t="s">
         <v>65</v>
       </c>
@@ -3669,7 +3756,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
@@ -3679,21 +3766,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="9" t="s">
@@ -3703,7 +3790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="18">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="9" t="s">
@@ -3713,7 +3800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="18">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="9" t="s">
@@ -3723,21 +3810,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="18">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="18">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="18">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="9" t="s">
@@ -3747,7 +3834,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="18">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="9" t="s">
@@ -3757,14 +3844,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="18">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="18">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="9" t="s">
@@ -3774,7 +3861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="18">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="9" t="s">
@@ -3784,7 +3871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="18">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
@@ -3794,7 +3881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="18">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
@@ -3804,7 +3891,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" t="s">
@@ -3814,7 +3901,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="18">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="9" t="s">
@@ -3843,15 +3930,15 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3859,7 +3946,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3867,7 +3954,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3875,7 +3962,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -3889,7 +3976,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>47</v>
@@ -3901,7 +3988,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>48</v>
@@ -3913,7 +4000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>124</v>
@@ -3925,7 +4012,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3933,7 +4020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
@@ -3941,19 +4028,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18">
       <c r="B12" s="18" t="s">
         <v>65</v>
       </c>
@@ -3967,7 +4054,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="9" t="s">
@@ -3977,21 +4064,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18">
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="9" t="s">
@@ -4001,7 +4088,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="18">
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="9" t="s">
@@ -4011,7 +4098,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="18">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="9" t="s">
@@ -4021,21 +4108,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="18">
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="18">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="18">
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="9" t="s">
@@ -4045,7 +4132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="18">
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="9" t="s">
@@ -4055,14 +4142,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="18">
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" ht="18">
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="9" t="s">
@@ -4072,7 +4159,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="18">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="9" t="s">
@@ -4082,7 +4169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" ht="18">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="9" t="s">
@@ -4092,7 +4179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" ht="18">
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="9" t="s">
@@ -4102,7 +4189,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5">
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" t="s">
@@ -4112,7 +4199,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="18">
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="9" t="s">

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHome\LetCome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjt/GitHub/LetCome/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="500" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,9 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="185">
   <si>
     <t>注册</t>
   </si>
@@ -749,12 +752,32 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>endtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbheight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thumbwidth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageheight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imagewidth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -856,7 +879,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -902,8 +925,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -944,17 +975,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -978,6 +1015,10 @@
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1000,6 +1041,10 @@
     <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1342,13 +1387,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
-    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1412,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +1423,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1389,7 +1434,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1403,22 +1448,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1426,7 +1471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1434,7 +1479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1442,7 +1487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1456,7 +1501,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
         <v>163</v>
       </c>
@@ -1467,7 +1512,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>164</v>
       </c>
@@ -1478,18 +1523,18 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="37.5">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>179</v>
       </c>
       <c r="D7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
         <v>166</v>
       </c>
@@ -1500,7 +1545,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
         <v>167</v>
       </c>
@@ -1511,7 +1556,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
         <v>168</v>
       </c>
@@ -1522,9 +1567,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>175</v>
@@ -1533,7 +1578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
         <v>47</v>
       </c>
@@ -1544,7 +1589,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
         <v>48</v>
@@ -1556,10 +1601,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1567,7 +1612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1">
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
@@ -1575,21 +1620,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18">
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -1599,9 +1644,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1609,23 +1654,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="9" t="s">
         <v>54</v>
       </c>
@@ -1633,9 +1678,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9" t="s">
         <v>55</v>
       </c>
@@ -1643,9 +1688,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
@@ -1653,23 +1698,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="9" t="s">
         <v>59</v>
       </c>
@@ -1677,9 +1722,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="9" t="s">
         <v>76</v>
       </c>
@@ -1687,16 +1732,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="9" t="s">
         <v>78</v>
       </c>
@@ -1704,9 +1749,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="9" t="s">
         <v>79</v>
       </c>
@@ -1714,43 +1759,72 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+    <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="9" t="s">
+    <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" t="s">
         <v>118</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E39" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C19:C35"/>
-    <mergeCell ref="B19:B35"/>
+    <mergeCell ref="C19:C39"/>
+    <mergeCell ref="B19:B39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1762,13 +1836,13 @@
       <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1784,7 +1858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1792,7 +1866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
@@ -1800,7 +1874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1808,7 +1882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1817,7 +1891,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>45</v>
       </c>
@@ -1826,21 +1900,21 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D10" t="s">
@@ -1850,9 +1924,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" t="s">
         <v>68</v>
       </c>
@@ -1878,15 +1952,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1894,7 +1968,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1902,7 +1976,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1910,7 +1984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -1924,7 +1998,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1932,7 +2006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -1941,7 +2015,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1950,17 +2024,17 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
         <v>114</v>
       </c>
@@ -1968,7 +2042,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
     </row>
@@ -1981,22 +2055,22 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="A1:E29"/>
+      <selection activeCell="B12" sqref="B12:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2004,7 +2078,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2012,7 +2086,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2020,7 +2094,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>47</v>
@@ -2046,7 +2120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>48</v>
@@ -2058,10 +2132,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2069,31 +2143,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2103,9 +2177,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -2113,23 +2187,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -2137,9 +2211,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -2147,9 +2221,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -2157,23 +2231,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -2181,9 +2255,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
@@ -2191,16 +2265,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9" t="s">
         <v>78</v>
       </c>
@@ -2208,9 +2282,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9" t="s">
         <v>79</v>
       </c>
@@ -2218,9 +2292,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
@@ -2228,9 +2302,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="9" t="s">
         <v>108</v>
       </c>
@@ -2238,9 +2312,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" t="s">
         <v>118</v>
       </c>
@@ -2248,21 +2322,49 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B12:B29"/>
-    <mergeCell ref="C12:C29"/>
+    <mergeCell ref="C12:C33"/>
+    <mergeCell ref="B12:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2277,16 +2379,16 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
     <col min="3" max="3" width="50.5" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="41.125" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2294,7 +2396,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2302,7 +2404,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2310,7 +2412,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2426,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2332,31 +2434,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -2366,16 +2468,16 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="9" t="s">
         <v>138</v>
       </c>
@@ -2383,9 +2485,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="9" t="s">
         <v>139</v>
       </c>
@@ -2393,9 +2495,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="9" t="s">
         <v>140</v>
       </c>
@@ -2403,9 +2505,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
         <v>141</v>
       </c>
@@ -2413,9 +2515,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
         <v>142</v>
       </c>
@@ -2423,47 +2525,47 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
     </row>
@@ -2486,13 +2588,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="49.125" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2500,7 +2602,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2508,7 +2610,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2516,12 +2618,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2529,32 +2631,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D9" t="s">
@@ -2564,18 +2666,18 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" t="s">
         <v>2</v>
       </c>
@@ -2583,9 +2685,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="9" t="s">
         <v>177</v>
       </c>
@@ -2593,16 +2695,16 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
         <v>139</v>
       </c>
@@ -2610,9 +2712,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
         <v>141</v>
       </c>
@@ -2620,9 +2722,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9" t="s">
         <v>142</v>
       </c>
@@ -2630,13 +2732,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2653,17 +2755,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2671,7 +2773,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2679,7 +2781,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2687,8 +2789,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
@@ -2701,8 +2803,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>153</v>
       </c>
@@ -2713,7 +2815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2721,7 +2823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>43</v>
       </c>
@@ -2730,7 +2832,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>45</v>
       </c>
@@ -2739,17 +2841,17 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
         <v>114</v>
       </c>
@@ -2775,16 +2877,16 @@
       <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2800,7 +2902,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2808,8 +2910,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -2819,8 +2921,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -2831,8 +2933,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -2840,7 +2942,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2848,8 +2950,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -2859,32 +2961,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -2908,12 +3010,12 @@
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2921,7 +3023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2929,7 +3031,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2937,8 +3039,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -2948,8 +3050,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -2960,7 +3062,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2968,8 +3070,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -2979,32 +3081,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3028,14 +3130,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3043,7 +3145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3051,7 +3153,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3059,7 +3161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3070,7 +3172,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3078,28 +3180,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -3124,13 +3226,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3138,7 +3240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3146,7 +3248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3154,7 +3256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3168,7 +3270,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3176,7 +3278,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -3198,14 +3300,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="37.625" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3213,7 +3315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3221,7 +3323,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3229,8 +3331,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3243,8 +3345,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="19"/>
       <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
@@ -3253,8 +3355,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
       <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
@@ -3265,8 +3367,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
       <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
@@ -3277,8 +3379,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
@@ -3287,8 +3389,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
       <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
@@ -3299,8 +3401,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
       <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
@@ -3309,8 +3411,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
       <c r="B11" s="9" t="s">
         <v>108</v>
       </c>
@@ -3321,8 +3423,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
       <c r="B12" s="9" t="s">
         <v>59</v>
       </c>
@@ -3333,7 +3435,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3341,22 +3443,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="20"/>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -3374,21 +3476,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D26" sqref="D26:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3396,7 +3498,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3404,7 +3506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3412,7 +3514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -3426,7 +3528,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3434,27 +3536,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>73</v>
       </c>
@@ -3464,7 +3566,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="18">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
@@ -3474,7 +3576,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="18">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>74</v>
       </c>
@@ -3484,7 +3586,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="18">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>75</v>
       </c>
@@ -3494,7 +3596,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="18">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>54</v>
       </c>
@@ -3504,7 +3606,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="18">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
@@ -3514,7 +3616,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="18">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>56</v>
       </c>
@@ -3524,7 +3626,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="18">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>57</v>
       </c>
@@ -3534,7 +3636,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="18">
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>112</v>
       </c>
@@ -3544,7 +3646,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="18">
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>58</v>
       </c>
@@ -3552,7 +3654,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" ht="18">
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>59</v>
       </c>
@@ -3562,7 +3664,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -3572,11 +3674,11 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="18">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="22" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -3584,9 +3686,9 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" ht="18">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="9" t="s">
         <v>78</v>
       </c>
@@ -3594,9 +3696,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="9" t="s">
         <v>79</v>
       </c>
@@ -3604,9 +3706,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="9" t="s">
         <v>97</v>
       </c>
@@ -3614,9 +3716,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="9" t="s">
         <v>98</v>
       </c>
@@ -3624,9 +3726,40 @@
         <v>99</v>
       </c>
     </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3635,21 +3768,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D30" sqref="D30:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
-    <col min="4" max="4" width="43.875" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3657,7 +3790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3665,7 +3798,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3673,7 +3806,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -3687,7 +3820,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>47</v>
@@ -3699,7 +3832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>48</v>
@@ -3711,10 +3844,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3722,31 +3855,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3756,9 +3889,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -3766,23 +3899,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -3790,9 +3923,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -3800,9 +3933,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -3810,23 +3943,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -3834,9 +3967,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
@@ -3844,16 +3977,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9" t="s">
         <v>78</v>
       </c>
@@ -3861,9 +3994,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9" t="s">
         <v>79</v>
       </c>
@@ -3871,9 +4004,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
@@ -3881,9 +4014,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="9" t="s">
         <v>108</v>
       </c>
@@ -3891,9 +4024,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" t="s">
         <v>118</v>
       </c>
@@ -3901,21 +4034,49 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C12:C29"/>
-    <mergeCell ref="B12:B29"/>
+    <mergeCell ref="C12:C33"/>
+    <mergeCell ref="B12:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3924,21 +4085,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D30" sqref="D30:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3946,7 +4107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3954,7 +4115,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3962,7 +4123,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -3976,7 +4137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>47</v>
@@ -3988,7 +4149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>48</v>
@@ -4000,7 +4161,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>124</v>
@@ -4012,7 +4173,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4020,31 +4181,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -4054,9 +4215,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -4064,23 +4225,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -4088,9 +4249,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -4098,9 +4259,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -4108,23 +4269,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -4132,9 +4293,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
@@ -4142,16 +4303,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9" t="s">
         <v>78</v>
       </c>
@@ -4159,9 +4320,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9" t="s">
         <v>79</v>
       </c>
@@ -4169,9 +4330,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="9" t="s">
         <v>80</v>
       </c>
@@ -4179,9 +4340,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="9" t="s">
         <v>108</v>
       </c>
@@ -4189,9 +4350,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" t="s">
         <v>118</v>
       </c>
@@ -4199,21 +4360,49 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B12:B29"/>
-    <mergeCell ref="C12:C29"/>
+    <mergeCell ref="C12:C33"/>
+    <mergeCell ref="B12:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="15"/>
+    <workbookView minimized="1" xWindow="20" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/categories</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>records</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -770,6 +766,10 @@
   </si>
   <si>
     <t>imagewidth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/categories</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +879,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -991,7 +997,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="59">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1019,6 +1025,9 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1045,6 +1054,9 @@
     <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1409,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1420,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1431,7 +1443,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1476,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1492,90 +1504,90 @@
         <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -1586,7 +1598,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.15">
@@ -1595,10 +1607,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1632,13 +1644,13 @@
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -1658,14 +1670,14 @@
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -1675,7 +1687,7 @@
         <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -1695,7 +1707,7 @@
         <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -1719,102 +1731,102 @@
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1845,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1847,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1855,7 +1867,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1871,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1912,26 +1924,26 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
         <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1941,6 +1953,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1965,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1973,7 +1986,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1989,13 +2002,13 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2036,10 +2049,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -2075,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2083,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2091,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2099,13 +2112,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2117,7 +2130,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2129,7 +2142,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2165,13 +2178,13 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>61</v>
@@ -2191,14 +2204,14 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -2228,7 +2241,7 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -2259,44 +2272,44 @@
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>
@@ -2306,58 +2319,58 @@
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
         <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2406,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -2401,7 +2414,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2409,7 +2422,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2417,13 +2430,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2456,73 +2469,73 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2599,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -2607,7 +2620,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2654,16 +2667,16 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
         <v>158</v>
-      </c>
-      <c r="E9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2671,7 +2684,7 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2682,54 +2695,54 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E12" t="s">
         <v>177</v>
-      </c>
-      <c r="E12" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
         <v>142</v>
-      </c>
-      <c r="E16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
@@ -2755,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -2770,7 +2783,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2778,7 +2791,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2786,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2794,25 +2807,25 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
-        <v>154</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2853,10 +2866,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B11" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2899,7 +2912,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2915,10 +2928,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2930,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2939,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -3028,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3047,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3059,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3150,7 +3163,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3158,7 +3171,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -3169,7 +3182,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -3267,7 +3280,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3296,8 +3309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3320,7 +3333,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -3342,7 +3355,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3352,7 +3365,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3364,7 +3377,7 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3376,7 +3389,7 @@
         <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3386,7 +3399,7 @@
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3395,10 +3408,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3408,19 +3421,19 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -3432,7 +3445,7 @@
         <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -3495,7 +3508,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3503,7 +3516,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3511,7 +3524,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3525,7 +3538,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3558,7 +3571,7 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>61</v>
@@ -3578,20 +3591,20 @@
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3601,7 +3614,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3621,7 +3634,7 @@
         <v>56</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3631,17 +3644,17 @@
         <v>57</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -3659,30 +3672,30 @@
         <v>59</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -3690,47 +3703,47 @@
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
       <c r="D24" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="21"/>
       <c r="C25" s="22"/>
       <c r="D25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
       <c r="D26" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" s="8"/>
     </row>
@@ -3738,21 +3751,21 @@
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
       <c r="D27" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
       <c r="D28" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3800,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3795,7 +3808,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3803,7 +3816,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3811,13 +3824,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3829,7 +3842,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3841,7 +3854,7 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3877,13 +3890,13 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>61</v>
@@ -3903,14 +3916,14 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -3940,7 +3953,7 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -3971,44 +3984,44 @@
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>
@@ -4018,58 +4031,58 @@
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
         <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4104,7 +4117,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4112,7 +4125,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4120,7 +4133,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4128,13 +4141,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4146,7 +4159,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -4158,19 +4171,19 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
         <v>124</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -4203,13 +4216,13 @@
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="E12" t="s">
         <v>61</v>
@@ -4229,14 +4242,14 @@
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -4266,7 +4279,7 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -4297,44 +4310,44 @@
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>
@@ -4344,58 +4357,58 @@
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
       <c r="D29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
         <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="20" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="10480" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -24,10 +24,11 @@
     <sheet name="获取图片瀑布流" sheetId="6" r:id="rId10"/>
     <sheet name="获取产品目录" sheetId="8" r:id="rId11"/>
     <sheet name="收藏" sheetId="10" r:id="rId12"/>
-    <sheet name="我的收藏" sheetId="13" r:id="rId13"/>
-    <sheet name="查询消息" sheetId="14" r:id="rId14"/>
-    <sheet name="查询联系人" sheetId="16" r:id="rId15"/>
-    <sheet name="发送消息" sheetId="15" r:id="rId16"/>
+    <sheet name="取消收藏" sheetId="17" r:id="rId13"/>
+    <sheet name="我的收藏" sheetId="13" r:id="rId14"/>
+    <sheet name="查询消息" sheetId="14" r:id="rId15"/>
+    <sheet name="查询联系人" sheetId="16" r:id="rId16"/>
+    <sheet name="发送消息" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="188">
   <si>
     <t>注册</t>
   </si>
@@ -481,10 +482,6 @@
   </si>
   <si>
     <t>关联关系ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/product/favorite</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -770,6 +767,21 @@
   </si>
   <si>
     <t>/categories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/favorite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/unfavorite</t>
+  </si>
+  <si>
+    <t>取消收藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +891,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -939,8 +951,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -988,6 +1002,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -997,7 +1014,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1028,6 +1045,7 @@
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1057,6 +1075,7 @@
     <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1504,10 +1523,10 @@
         <v>39</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
         <v>101</v>
@@ -1515,10 +1534,10 @@
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
         <v>101</v>
@@ -1526,10 +1545,10 @@
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
         <v>101</v>
@@ -1537,10 +1556,10 @@
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
         <v>101</v>
@@ -1548,10 +1567,10 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
         <v>101</v>
@@ -1559,10 +1578,10 @@
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
@@ -1570,10 +1589,10 @@
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
         <v>101</v>
@@ -1581,10 +1600,10 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
         <v>101</v>
@@ -1607,7 +1626,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
@@ -1643,10 +1662,10 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -1657,8 +1676,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
@@ -1667,22 +1686,22 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="9" t="s">
         <v>54</v>
       </c>
@@ -1691,8 +1710,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="9" t="s">
         <v>55</v>
       </c>
@@ -1701,8 +1720,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
@@ -1711,22 +1730,22 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="9" t="s">
         <v>59</v>
       </c>
@@ -1735,8 +1754,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="9" t="s">
         <v>75</v>
       </c>
@@ -1745,15 +1764,15 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="9" t="s">
         <v>77</v>
       </c>
@@ -1762,8 +1781,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="9" t="s">
         <v>78</v>
       </c>
@@ -1772,36 +1791,36 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="9" t="s">
+    <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="9" t="s">
+    <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="37" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="9" t="s">
         <v>79</v>
       </c>
@@ -1810,8 +1829,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="9" t="s">
         <v>107</v>
       </c>
@@ -1820,13 +1839,13 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1867,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1923,10 +1942,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D10" t="s">
@@ -1937,8 +1956,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" t="s">
         <v>67</v>
       </c>
@@ -1962,7 +1981,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1978,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1986,7 +2005,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2067,6 +2086,104 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -2088,7 +2205,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2096,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2104,7 +2221,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2112,10 +2229,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>101</v>
@@ -2157,7 +2274,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -2165,22 +2282,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2191,8 +2308,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -2201,22 +2318,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -2225,8 +2342,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -2235,8 +2352,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -2245,22 +2362,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2386,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
@@ -2279,15 +2396,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
@@ -2296,8 +2413,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9" t="s">
         <v>78</v>
       </c>
@@ -2306,8 +2423,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9" t="s">
         <v>79</v>
       </c>
@@ -2316,8 +2433,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9" t="s">
         <v>107</v>
       </c>
@@ -2326,51 +2443,51 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="9" t="s">
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="9" t="s">
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2406,7 +2523,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -2414,7 +2531,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2422,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2430,10 +2547,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>100</v>
@@ -2448,7 +2565,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -2456,86 +2573,86 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="9" t="s">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="9" t="s">
+      <c r="E15" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2593,7 +2710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -2612,7 +2729,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -2620,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2645,7 +2762,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -2653,105 +2770,105 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
         <v>157</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
         <v>176</v>
       </c>
-      <c r="E12" t="s">
-        <v>177</v>
-      </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="9" t="s">
+      <c r="E16" t="s">
         <v>141</v>
       </c>
-      <c r="E16" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2764,7 +2881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2783,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2791,7 +2908,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2799,30 +2916,30 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>150</v>
-      </c>
-      <c r="C4" t="s">
-        <v>151</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
         <v>152</v>
-      </c>
-      <c r="C5" t="s">
-        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>100</v>
@@ -2869,7 +2986,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2924,7 +3041,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -2935,7 +3052,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -2947,7 +3064,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -2964,7 +3081,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -2975,31 +3092,31 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -3053,7 +3170,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -3064,7 +3181,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -3084,7 +3201,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -3095,31 +3212,31 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3194,7 +3311,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -3202,19 +3319,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -3309,7 +3426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B12"/>
     </sheetView>
   </sheetViews>
@@ -3345,7 +3462,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -3359,7 +3476,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
@@ -3369,7 +3486,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
@@ -3381,7 +3498,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
@@ -3393,7 +3510,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
@@ -3403,7 +3520,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
@@ -3415,7 +3532,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
@@ -3425,7 +3542,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="9" t="s">
         <v>107</v>
       </c>
@@ -3437,7 +3554,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="9" t="s">
         <v>59</v>
       </c>
@@ -3457,7 +3574,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -3465,13 +3582,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -3508,7 +3625,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3524,7 +3641,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3550,7 +3667,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -3558,13 +3675,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -3679,19 +3796,19 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -3700,8 +3817,8 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="9" t="s">
         <v>77</v>
       </c>
@@ -3710,8 +3827,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="9" t="s">
         <v>78</v>
       </c>
@@ -3720,8 +3837,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="9" t="s">
         <v>96</v>
       </c>
@@ -3730,8 +3847,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="9" t="s">
         <v>97</v>
       </c>
@@ -3740,32 +3857,32 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="9" t="s">
+    </row>
+    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="9" t="s">
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="9" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3800,7 +3917,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3808,7 +3925,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3816,7 +3933,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -3824,10 +3941,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>101</v>
@@ -3869,7 +3986,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -3877,22 +3994,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3903,8 +4020,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -3913,22 +4030,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -3937,8 +4054,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -3947,8 +4064,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -3957,22 +4074,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -3981,8 +4098,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
@@ -3991,15 +4108,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
@@ -4008,8 +4125,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9" t="s">
         <v>78</v>
       </c>
@@ -4018,8 +4135,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9" t="s">
         <v>79</v>
       </c>
@@ -4028,8 +4145,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9" t="s">
         <v>107</v>
       </c>
@@ -4038,51 +4155,51 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="9" t="s">
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="9" t="s">
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4117,7 +4234,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4125,7 +4242,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4133,7 +4250,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4141,10 +4258,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>101</v>
@@ -4177,13 +4294,13 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
         <v>123</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -4195,7 +4312,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -4203,22 +4320,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -4229,8 +4346,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -4239,22 +4356,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -4263,8 +4380,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -4273,8 +4390,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -4283,22 +4400,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -4307,8 +4424,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
@@ -4317,15 +4434,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
@@ -4334,8 +4451,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="9" t="s">
         <v>78</v>
       </c>
@@ -4344,8 +4461,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="9" t="s">
         <v>79</v>
       </c>
@@ -4354,8 +4471,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="9" t="s">
         <v>107</v>
       </c>
@@ -4364,51 +4481,51 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="9" t="s">
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="9" t="s">
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="12"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -707,9 +707,6 @@
     <t>开始时间，1970年1月1日的秒数</t>
   </si>
   <si>
-    <t>结束时间，1970年1月1日的秒数</t>
-  </si>
-  <si>
     <t>第几页，默认为1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -782,6 +779,10 @@
   </si>
   <si>
     <t>收藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间，1970年1月1日的秒数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1481,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1559,7 +1560,7 @@
         <v>163</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
         <v>101</v>
@@ -1600,10 +1601,10 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
         <v>101</v>
@@ -1626,7 +1627,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
@@ -1794,28 +1795,28 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
       <c r="D34" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" x14ac:dyDescent="0.2">
@@ -1886,7 +1887,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1997,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2005,7 +2006,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2089,7 +2090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2100,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -2108,7 +2109,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2466,28 +2467,28 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +2596,7 @@
         <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -2819,10 +2820,10 @@
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
         <v>175</v>
-      </c>
-      <c r="E12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -3860,7 +3861,7 @@
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="8"/>
     </row>
@@ -3868,21 +3869,21 @@
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
       <c r="D27" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4178,28 +4179,28 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4504,28 +4505,28 @@
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="D30" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="190">
   <si>
     <t>注册</t>
   </si>
@@ -783,6 +783,14 @@
   </si>
   <si>
     <t>结束时间，1970年1月1日的秒数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1482,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3002,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3067,65 +3075,77 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="21"/>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="21"/>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,26 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
     <sheet name="注册" sheetId="1" r:id="rId2"/>
-    <sheet name="登录" sheetId="3" r:id="rId3"/>
-    <sheet name="上传图片" sheetId="4" r:id="rId4"/>
-    <sheet name="获取图片" sheetId="5" r:id="rId5"/>
-    <sheet name="更新产品" sheetId="7" r:id="rId6"/>
-    <sheet name="获取单个产品详情" sheetId="9" r:id="rId7"/>
-    <sheet name="查询我的产品" sheetId="11" r:id="rId8"/>
-    <sheet name="查询用户产品列表" sheetId="12" r:id="rId9"/>
-    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId10"/>
-    <sheet name="获取产品目录" sheetId="8" r:id="rId11"/>
-    <sheet name="收藏" sheetId="10" r:id="rId12"/>
-    <sheet name="取消收藏" sheetId="17" r:id="rId13"/>
-    <sheet name="我的收藏" sheetId="13" r:id="rId14"/>
-    <sheet name="查询消息" sheetId="14" r:id="rId15"/>
-    <sheet name="查询联系人" sheetId="16" r:id="rId16"/>
-    <sheet name="发送消息" sheetId="15" r:id="rId17"/>
+    <sheet name="sso" sheetId="18" r:id="rId3"/>
+    <sheet name="登录" sheetId="3" r:id="rId4"/>
+    <sheet name="上传图片" sheetId="4" r:id="rId5"/>
+    <sheet name="获取图片" sheetId="5" r:id="rId6"/>
+    <sheet name="更新产品" sheetId="7" r:id="rId7"/>
+    <sheet name="获取单个产品详情" sheetId="9" r:id="rId8"/>
+    <sheet name="查询我的产品" sheetId="11" r:id="rId9"/>
+    <sheet name="查询用户产品列表" sheetId="12" r:id="rId10"/>
+    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId11"/>
+    <sheet name="获取产品目录" sheetId="8" r:id="rId12"/>
+    <sheet name="收藏" sheetId="10" r:id="rId13"/>
+    <sheet name="取消收藏" sheetId="17" r:id="rId14"/>
+    <sheet name="我的收藏" sheetId="13" r:id="rId15"/>
+    <sheet name="查询消息" sheetId="14" r:id="rId16"/>
+    <sheet name="查询联系人" sheetId="16" r:id="rId17"/>
+    <sheet name="发送消息" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="193">
   <si>
     <t>注册</t>
   </si>
@@ -791,6 +792,18 @@
   </si>
   <si>
     <t>qq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/sso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>accesstoken</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1488,6 +1501,332 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C12:C33"/>
+    <mergeCell ref="B12:B33"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1868,7 +2207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1985,12 +2324,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2094,7 +2433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2192,13 +2531,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2510,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2719,12 +3056,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2890,12 +3227,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3012,8 +3349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3154,6 +3491,149 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3273,7 +3753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3369,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3443,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -3625,7 +4105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -3917,7 +4397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -4232,330 +4712,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C12:C33"/>
-    <mergeCell ref="B12:B33"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
     <sheet name="注册" sheetId="1" r:id="rId2"/>
     <sheet name="sso" sheetId="18" r:id="rId3"/>
-    <sheet name="登录" sheetId="3" r:id="rId4"/>
-    <sheet name="上传图片" sheetId="4" r:id="rId5"/>
-    <sheet name="获取图片" sheetId="5" r:id="rId6"/>
-    <sheet name="更新产品" sheetId="7" r:id="rId7"/>
-    <sheet name="获取单个产品详情" sheetId="9" r:id="rId8"/>
-    <sheet name="查询我的产品" sheetId="11" r:id="rId9"/>
-    <sheet name="查询用户产品列表" sheetId="12" r:id="rId10"/>
-    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId11"/>
-    <sheet name="获取产品目录" sheetId="8" r:id="rId12"/>
-    <sheet name="收藏" sheetId="10" r:id="rId13"/>
-    <sheet name="取消收藏" sheetId="17" r:id="rId14"/>
-    <sheet name="我的收藏" sheetId="13" r:id="rId15"/>
-    <sheet name="查询消息" sheetId="14" r:id="rId16"/>
-    <sheet name="查询联系人" sheetId="16" r:id="rId17"/>
-    <sheet name="发送消息" sheetId="15" r:id="rId18"/>
+    <sheet name="修改QQ" sheetId="19" r:id="rId4"/>
+    <sheet name="登录" sheetId="3" r:id="rId5"/>
+    <sheet name="上传图片" sheetId="4" r:id="rId6"/>
+    <sheet name="获取图片" sheetId="5" r:id="rId7"/>
+    <sheet name="更新产品" sheetId="7" r:id="rId8"/>
+    <sheet name="获取单个产品详情" sheetId="9" r:id="rId9"/>
+    <sheet name="查询我的产品" sheetId="11" r:id="rId10"/>
+    <sheet name="查询用户产品列表" sheetId="12" r:id="rId11"/>
+    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId12"/>
+    <sheet name="获取产品目录" sheetId="8" r:id="rId13"/>
+    <sheet name="收藏" sheetId="10" r:id="rId14"/>
+    <sheet name="取消收藏" sheetId="17" r:id="rId15"/>
+    <sheet name="我的收藏" sheetId="13" r:id="rId16"/>
+    <sheet name="查询消息" sheetId="14" r:id="rId17"/>
+    <sheet name="查询联系人" sheetId="16" r:id="rId18"/>
+    <sheet name="发送消息" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="196">
   <si>
     <t>注册</t>
   </si>
@@ -804,6 +805,18 @@
   </si>
   <si>
     <t>accesstoken</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/modifyqq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1509,10 +1522,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1520,7 +1533,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1528,7 +1541,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1540,7 +1553,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -1554,7 +1567,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -1566,7 +1579,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -1578,16 +1591,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -1826,6 +1830,332 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C12:C33"/>
+    <mergeCell ref="B12:B33"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -2207,7 +2537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2324,7 +2654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2433,7 +2763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2531,7 +2861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -2847,7 +3177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -3056,7 +3386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -3227,7 +3557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -3350,7 +3680,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3494,8 +3824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3635,10 +3965,108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3753,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3849,7 +4277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -3923,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -4105,7 +4533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -4395,321 +4823,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C12:C33"/>
-    <mergeCell ref="B12:B33"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/letcome接口.xlsx
+++ b/letcome接口.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="header信息" sheetId="2" r:id="rId1"/>
@@ -18,19 +18,21 @@
     <sheet name="修改QQ" sheetId="19" r:id="rId4"/>
     <sheet name="登录" sheetId="3" r:id="rId5"/>
     <sheet name="上传图片" sheetId="4" r:id="rId6"/>
-    <sheet name="获取图片" sheetId="5" r:id="rId7"/>
-    <sheet name="更新产品" sheetId="7" r:id="rId8"/>
-    <sheet name="获取单个产品详情" sheetId="9" r:id="rId9"/>
-    <sheet name="查询我的产品" sheetId="11" r:id="rId10"/>
-    <sheet name="查询用户产品列表" sheetId="12" r:id="rId11"/>
-    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId12"/>
-    <sheet name="获取产品目录" sheetId="8" r:id="rId13"/>
-    <sheet name="收藏" sheetId="10" r:id="rId14"/>
-    <sheet name="取消收藏" sheetId="17" r:id="rId15"/>
-    <sheet name="我的收藏" sheetId="13" r:id="rId16"/>
-    <sheet name="查询消息" sheetId="14" r:id="rId17"/>
-    <sheet name="查询联系人" sheetId="16" r:id="rId18"/>
-    <sheet name="发送消息" sheetId="15" r:id="rId19"/>
+    <sheet name="附加图片" sheetId="20" r:id="rId7"/>
+    <sheet name="获取图片" sheetId="5" r:id="rId8"/>
+    <sheet name="更新产品" sheetId="7" r:id="rId9"/>
+    <sheet name="获取单个产品详情" sheetId="9" r:id="rId10"/>
+    <sheet name="查询我的产品" sheetId="11" r:id="rId11"/>
+    <sheet name="查询用户产品列表" sheetId="12" r:id="rId12"/>
+    <sheet name="获取图片瀑布流" sheetId="6" r:id="rId13"/>
+    <sheet name="获取产品图片列表" sheetId="21" r:id="rId14"/>
+    <sheet name="获取产品目录" sheetId="8" r:id="rId15"/>
+    <sheet name="收藏" sheetId="10" r:id="rId16"/>
+    <sheet name="取消收藏" sheetId="17" r:id="rId17"/>
+    <sheet name="我的收藏" sheetId="13" r:id="rId18"/>
+    <sheet name="查询消息" sheetId="14" r:id="rId19"/>
+    <sheet name="查询联系人" sheetId="16" r:id="rId20"/>
+    <sheet name="发送消息" sheetId="15" r:id="rId21"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="203">
   <si>
     <t>注册</t>
   </si>
@@ -817,6 +819,34 @@
   </si>
   <si>
     <t>qq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加图片上传，根据pid为产品附加图片（至多两张）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/image/attach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以普通POST参数形式提交productid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/product/allimages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片数组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -989,7 +1019,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1040,6 +1070,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1047,6 +1080,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1514,10 +1550,302 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="C21:C29"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D33"/>
+      <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1602,7 +1930,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -1610,22 +1938,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1636,8 +1964,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -1646,22 +1974,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -1670,8 +1998,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -1680,8 +2008,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -1690,22 +2018,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -1714,8 +2042,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
@@ -1724,15 +2052,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
@@ -1741,8 +2069,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="9" t="s">
         <v>78</v>
       </c>
@@ -1751,8 +2079,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="9" t="s">
         <v>79</v>
       </c>
@@ -1761,8 +2089,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="9" t="s">
         <v>107</v>
       </c>
@@ -1771,8 +2099,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" t="s">
         <v>116</v>
       </c>
@@ -1781,8 +2109,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="9" t="s">
         <v>119</v>
       </c>
@@ -1791,29 +2119,29 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="9" t="s">
         <v>181</v>
       </c>
@@ -1829,7 +2157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -1928,7 +2256,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -1936,22 +2264,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -1962,8 +2290,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -1972,22 +2300,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -1996,8 +2324,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -2006,8 +2334,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -2016,22 +2344,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -2040,8 +2368,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
@@ -2050,15 +2378,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
@@ -2067,8 +2395,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="9" t="s">
         <v>78</v>
       </c>
@@ -2077,8 +2405,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="9" t="s">
         <v>79</v>
       </c>
@@ -2087,8 +2415,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="9" t="s">
         <v>107</v>
       </c>
@@ -2097,8 +2425,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" t="s">
         <v>116</v>
       </c>
@@ -2107,8 +2435,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="9" t="s">
         <v>119</v>
       </c>
@@ -2117,29 +2445,29 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="9" t="s">
         <v>181</v>
       </c>
@@ -2155,12 +2483,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2170,6 +2498,7 @@
     <col min="3" max="3" width="35.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -2340,10 +2669,10 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -2354,8 +2683,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="9" t="s">
         <v>53</v>
       </c>
@@ -2364,22 +2693,22 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="9" t="s">
         <v>54</v>
       </c>
@@ -2388,8 +2717,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="9" t="s">
         <v>55</v>
       </c>
@@ -2398,8 +2727,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
@@ -2408,22 +2737,22 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="9" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2761,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="9" t="s">
         <v>75</v>
       </c>
@@ -2442,15 +2771,15 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="9" t="s">
         <v>77</v>
       </c>
@@ -2459,8 +2788,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="9" t="s">
         <v>78</v>
       </c>
@@ -2469,36 +2798,36 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="9" t="s">
         <v>79</v>
       </c>
@@ -2507,8 +2836,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="9" t="s">
         <v>107</v>
       </c>
@@ -2517,8 +2846,8 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
       <c r="D39" t="s">
         <v>116</v>
       </c>
@@ -2537,7 +2866,228 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -2620,10 +3170,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D10" t="s">
@@ -2634,8 +3184,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" t="s">
         <v>67</v>
       </c>
@@ -2654,7 +3204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -2763,7 +3313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -2861,7 +3411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -2950,7 +3500,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -2958,22 +3508,22 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -2984,8 +3534,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="9" t="s">
         <v>53</v>
       </c>
@@ -2994,22 +3544,22 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="9" t="s">
         <v>54</v>
       </c>
@@ -3018,8 +3568,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
@@ -3028,8 +3578,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
@@ -3038,22 +3588,22 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
@@ -3062,8 +3612,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="9" t="s">
         <v>75</v>
       </c>
@@ -3072,15 +3622,15 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
@@ -3089,8 +3639,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="9" t="s">
         <v>78</v>
       </c>
@@ -3099,8 +3649,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="9" t="s">
         <v>79</v>
       </c>
@@ -3109,8 +3659,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="9" t="s">
         <v>107</v>
       </c>
@@ -3119,8 +3669,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" t="s">
         <v>116</v>
       </c>
@@ -3129,8 +3679,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="9" t="s">
         <v>119</v>
       </c>
@@ -3139,29 +3689,29 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="9" t="s">
         <v>181</v>
       </c>
@@ -3177,7 +3727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -3241,7 +3791,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -3249,22 +3799,22 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -3275,15 +3825,15 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="9" t="s">
         <v>136</v>
       </c>
@@ -3292,8 +3842,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="9" t="s">
         <v>137</v>
       </c>
@@ -3302,8 +3852,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="9" t="s">
         <v>138</v>
       </c>
@@ -3312,8 +3862,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="9" t="s">
         <v>139</v>
       </c>
@@ -3322,8 +3872,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="9" t="s">
         <v>140</v>
       </c>
@@ -3383,295 +3933,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B9:B18"/>
-    <mergeCell ref="C9:C18"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3717,7 +3978,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -3728,7 +3989,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -3740,7 +4001,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>188</v>
       </c>
@@ -3752,7 +4013,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -3769,7 +4030,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -3780,31 +4041,31 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -3817,6 +4078,295 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B9:B18"/>
+    <mergeCell ref="C9:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3858,7 +4408,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -3866,7 +4416,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" t="s">
         <v>192</v>
       </c>
@@ -3880,7 +4430,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -3891,31 +4441,31 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3967,7 +4517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4001,7 +4551,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -4009,7 +4559,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -4020,7 +4570,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -4031,25 +4581,25 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4099,7 +4649,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -4110,7 +4660,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -4130,7 +4680,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -4141,31 +4691,31 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -4186,7 +4736,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4240,7 +4790,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
@@ -4248,19 +4798,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -4278,6 +4828,113 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="21"/>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -4351,7 +5008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -4391,7 +5048,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -4405,7 +5062,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="8" t="s">
         <v>53</v>
       </c>
@@ -4415,7 +5072,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
@@ -4427,7 +5084,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
@@ -4439,7 +5096,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="9" t="s">
         <v>56</v>
       </c>
@@ -4449,7 +5106,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
@@ -4461,7 +5118,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="9" t="s">
         <v>58</v>
       </c>
@@ -4471,7 +5128,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="9" t="s">
         <v>107</v>
       </c>
@@ -4483,7 +5140,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="9" t="s">
         <v>59</v>
       </c>
@@ -4503,7 +5160,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
@@ -4511,13 +5168,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -4531,296 +5188,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="C21:C29"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>